--- a/Advanced Reactor Materials/Fall2023/grading.xlsx
+++ b/Advanced Reactor Materials/Fall2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004F356-3A31-EB4B-B2E4-F6C246EC6435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B070F-38A5-1448-BD43-FFA3E237E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3820" windowWidth="28040" windowHeight="17440" xr2:uid="{142DFFB4-4F83-5448-8A86-CBCBD31FE822}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Grading for NE-795-010</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Project 1</t>
-  </si>
-  <si>
-    <t>Project 2</t>
   </si>
   <si>
     <t>Weight</t>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97299AD9-D8EA-E746-928C-2071F09E3E0E}">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,12 +471,12 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
@@ -492,36 +489,33 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>97</v>
@@ -530,10 +524,17 @@
         <f>D8+2.75</f>
         <v>99.75</v>
       </c>
+      <c r="F8">
+        <v>92</v>
+      </c>
+      <c r="G8">
+        <f>F8+8</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>88</v>
@@ -542,11 +543,18 @@
         <f t="shared" ref="E9:E12" si="0">D9+2.75</f>
         <v>90.75</v>
       </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G12" si="1">F9+8</f>
+        <v>78</v>
+      </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>94</v>
@@ -555,10 +563,17 @@
         <f t="shared" si="0"/>
         <v>96.75</v>
       </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>90</v>
@@ -567,10 +582,17 @@
         <f t="shared" si="0"/>
         <v>92.75</v>
       </c>
+      <c r="F11">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>91</v>
@@ -579,112 +601,115 @@
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
+      <c r="F12">
+        <v>87</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <f>AVERAGE(D8:D12)</f>
         <v>92</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:M14" si="1">AVERAGE(E8:E11)</f>
+        <f t="shared" ref="E14:M14" si="2">AVERAGE(E8:E11)</f>
         <v>95</v>
       </c>
-      <c r="F14" t="e">
-        <f t="shared" si="1"/>
+      <c r="F14">
+        <f>AVERAGE(F8:F12)</f>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
+      <c r="I14" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" t="e">
-        <f t="shared" si="1"/>
+      <c r="J14" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" t="e">
-        <f t="shared" si="1"/>
+      <c r="K14" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
       </c>
       <c r="Q18">
         <f>SUM(D18:P18)</f>
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <f>E8*E$15/100</f>
-        <v>15.96</v>
+        <v>19.95</v>
       </c>
       <c r="G19">
         <f>G8*G$15/100</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <f>I8*I$15/100</f>
@@ -698,177 +723,125 @@
         <f>L8*L$15/100</f>
         <v>0</v>
       </c>
-      <c r="M19">
-        <f>M8*M$15/100</f>
-        <v>0</v>
-      </c>
       <c r="Q19" s="1">
         <f>SUM(D19:P19)/$Q$18</f>
-        <v>0.99750000000000005</v>
+        <v>0.99875000000000003</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G23" si="2">E9*E$15/100</f>
-        <v>14.52</v>
+        <f t="shared" ref="E20:G23" si="3">E9*E$15/100</f>
+        <v>18.149999999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15.6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="3">I9*I$15/100</f>
+        <f t="shared" ref="I20" si="4">I9*I$15/100</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:M20" si="4">K9*K$15/100</f>
+        <f t="shared" ref="K20:M20" si="5">K9*K$15/100</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ref="Q20:Q23" si="5">SUM(D20:P20)/$Q$18</f>
-        <v>0.90749999999999997</v>
+        <f t="shared" ref="Q20:Q23" si="6">SUM(D20:P20)/$Q$18</f>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>15.48</v>
+        <f t="shared" si="3"/>
+        <v>19.350000000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18.399999999999999</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="6">I10*I$15/100</f>
+        <f t="shared" ref="I21" si="7">I10*I$15/100</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:M21" si="7">K10*K$15/100</f>
+        <f t="shared" ref="K21:M21" si="8">K10*K$15/100</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.96750000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.94374999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>14.84</v>
+        <f t="shared" si="3"/>
+        <v>18.55</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="8">I11*I$15/100</f>
+        <f t="shared" ref="I22" si="9">I11*I$15/100</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:M22" si="9">K11*K$15/100</f>
+        <f t="shared" ref="K22:M22" si="10">K11*K$15/100</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
         <f>SUM(D22:P22)/$Q$18</f>
-        <v>0.92749999999999999</v>
+        <v>0.87375000000000003</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>18.75</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="10">I12*I$15/100</f>
+        <f t="shared" ref="I23" si="11">I12*I$15/100</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:M23" si="11">K12*K$15/100</f>
+        <f t="shared" ref="K23:M23" si="12">K12*K$15/100</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <f>E29*4</f>
-        <v>64</v>
-      </c>
-      <c r="H29">
-        <f>20*4</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <f>E30*2</f>
-        <v>36</v>
-      </c>
-      <c r="H30">
-        <f>100-H29</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F32">
-        <f>SUM(F29:F30)</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0.94374999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Advanced Reactor Materials/Fall2023/grading.xlsx
+++ b/Advanced Reactor Materials/Fall2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B070F-38A5-1448-BD43-FFA3E237E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7E922-53BD-144C-8E27-ACE77D8ADD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3820" windowWidth="28040" windowHeight="17440" xr2:uid="{142DFFB4-4F83-5448-8A86-CBCBD31FE822}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Grading for NE-795-010</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Nermeen Elamrawy</t>
+  </si>
+  <si>
+    <t>Grade Bonus</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,6 +515,9 @@
       <c r="L7" t="s">
         <v>6</v>
       </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -531,6 +537,16 @@
         <f>F8+8</f>
         <v>100</v>
       </c>
+      <c r="H8">
+        <v>97</v>
+      </c>
+      <c r="I8">
+        <f>H8+5</f>
+        <v>102</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -550,6 +566,16 @@
         <f t="shared" ref="G9:G12" si="1">F9+8</f>
         <v>78</v>
       </c>
+      <c r="H9">
+        <v>73</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I12" si="2">H9+5</f>
+        <v>78</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
@@ -570,6 +596,16 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
+      <c r="H10">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -589,6 +625,16 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="H11">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="L11">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -608,6 +654,16 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <f>H12+5</f>
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -618,36 +674,36 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:M14" si="2">AVERAGE(E8:E11)</f>
-        <v>95</v>
+        <f t="shared" ref="E14:L14" si="3">AVERAGE(E8:E12)</f>
+        <v>94.75</v>
       </c>
       <c r="F14">
-        <f>AVERAGE(F8:F12)</f>
+        <f t="shared" si="3"/>
         <v>81.400000000000006</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="H14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>89.4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>85.8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>90.8</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" t="e">
-        <f t="shared" si="2"/>
+      <c r="K14" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>95.6</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
@@ -694,9 +750,15 @@
       <c r="G18">
         <v>20</v>
       </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
       <c r="Q18">
         <f>SUM(D18:P18)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -713,7 +775,7 @@
       </c>
       <c r="I19">
         <f>I8*I$15/100</f>
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K19">
         <f>K8*K$15/100</f>
@@ -721,11 +783,11 @@
       </c>
       <c r="L19">
         <f>L8*L$15/100</f>
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="Q19" s="1">
         <f>SUM(D19:P19)/$Q$18</f>
-        <v>0.99875000000000003</v>
+        <v>0.98937500000000012</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
@@ -733,28 +795,28 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G23" si="3">E9*E$15/100</f>
+        <f t="shared" ref="E20:G23" si="4">E9*E$15/100</f>
         <v>18.149999999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="4">I9*I$15/100</f>
+        <f t="shared" ref="I20" si="5">I9*I$15/100</f>
+        <v>15.6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:L20" si="6">K9*K$15/100</f>
         <v>0</v>
       </c>
-      <c r="K20">
-        <f t="shared" ref="K20:M20" si="5">K9*K$15/100</f>
-        <v>0</v>
-      </c>
       <c r="L20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ref="Q20:Q23" si="6">SUM(D20:P20)/$Q$18</f>
-        <v>0.84375</v>
+        <f t="shared" ref="Q20:Q23" si="7">SUM(D20:P20)/$Q$18</f>
+        <v>0.84187499999999993</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
@@ -762,28 +824,28 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.350000000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.399999999999999</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="7">I10*I$15/100</f>
+        <f t="shared" ref="I21" si="8">I10*I$15/100</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:L21" si="9">K10*K$15/100</f>
         <v>0</v>
       </c>
-      <c r="K21">
-        <f t="shared" ref="K21:M21" si="8">K10*K$15/100</f>
-        <v>0</v>
-      </c>
       <c r="L21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>20.399999999999999</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="6"/>
-        <v>0.94374999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.95687499999999992</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -791,28 +853,28 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.55</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.399999999999999</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="9">I11*I$15/100</f>
+        <f t="shared" ref="I22" si="10">I11*I$15/100</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:L22" si="11">K11*K$15/100</f>
         <v>0</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22:M22" si="10">K11*K$15/100</f>
-        <v>0</v>
-      </c>
       <c r="L22">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>19.399999999999999</v>
       </c>
       <c r="Q22" s="1">
         <f>SUM(D22:P22)/$Q$18</f>
-        <v>0.87375000000000003</v>
+        <v>0.89687499999999998</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
@@ -820,28 +882,28 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="11">I12*I$15/100</f>
+        <f t="shared" ref="I23" si="12">I12*I$15/100</f>
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:L23" si="13">K12*K$15/100</f>
         <v>0</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23:M23" si="12">K12*K$15/100</f>
-        <v>0</v>
-      </c>
       <c r="L23">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="6"/>
-        <v>0.94374999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.94687500000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Advanced Reactor Materials/Fall2023/grading.xlsx
+++ b/Advanced Reactor Materials/Fall2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7E922-53BD-144C-8E27-ACE77D8ADD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7F797-81C4-2D41-B48F-17AFBE857DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3820" windowWidth="28040" windowHeight="17440" xr2:uid="{142DFFB4-4F83-5448-8A86-CBCBD31FE822}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>Nermeen Elamrawy</t>
   </si>
   <si>
-    <t>Grade Bonus</t>
+    <t>Survey</t>
   </si>
 </sst>
 </file>
@@ -459,35 +459,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97299AD9-D8EA-E746-928C-2071F09E3E0E}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q3" s="2" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q4" s="2" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -510,16 +510,16 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -544,11 +544,11 @@
         <f>H8+5</f>
         <v>102</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -570,15 +570,18 @@
         <v>73</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I12" si="2">H9+5</f>
+        <f t="shared" ref="I9:I11" si="2">H9+5</f>
         <v>78</v>
       </c>
-      <c r="L9">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>90</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -603,11 +606,14 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="L10">
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -632,11 +638,14 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="L11">
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="M11">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -661,11 +670,14 @@
         <f>H12+5</f>
         <v>95</v>
       </c>
-      <c r="L12">
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>10</v>
       </c>
@@ -674,7 +686,7 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:L14" si="3">AVERAGE(E8:E12)</f>
+        <f t="shared" ref="E14:M14" si="3">AVERAGE(E8:E12)</f>
         <v>94.75</v>
       </c>
       <c r="F14">
@@ -697,16 +709,16 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" t="e">
-        <f t="shared" si="3"/>
+      <c r="L14" t="e">
+        <f>AVERAGE(L8:L12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>95.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -731,19 +743,19 @@
       <c r="J15">
         <v>20</v>
       </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
       <c r="L15">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q17" t="s">
+      <c r="M15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>20</v>
       </c>
@@ -753,15 +765,15 @@
       <c r="I18">
         <v>20</v>
       </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="Q18">
-        <f>SUM(D18:P18)</f>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <f>SUM(D18:Q18)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -777,20 +789,20 @@
         <f>I8*I$15/100</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="K19">
-        <f>K8*K$15/100</f>
-        <v>0</v>
-      </c>
       <c r="L19">
         <f>L8*L$15/100</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>M8*M$15/100</f>
         <v>18.8</v>
       </c>
-      <c r="Q19" s="1">
-        <f>SUM(D19:P19)/$Q$18</f>
+      <c r="R19" s="1">
+        <f>SUM(D19:Q19)/$R$18</f>
         <v>0.98937500000000012</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -806,20 +818,20 @@
         <f t="shared" ref="I20" si="5">I9*I$15/100</f>
         <v>15.6</v>
       </c>
-      <c r="K20">
-        <f t="shared" ref="K20:L20" si="6">K9*K$15/100</f>
+      <c r="L20">
+        <f t="shared" ref="L20:M20" si="6">L9*L$15/100</f>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="Q20" s="1">
-        <f t="shared" ref="Q20:Q23" si="7">SUM(D20:P20)/$Q$18</f>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R23" si="7">SUM(D20:Q20)/$R$18</f>
         <v>0.84187499999999993</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -835,20 +847,20 @@
         <f t="shared" ref="I21" si="8">I10*I$15/100</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="K21">
-        <f t="shared" ref="K21:L21" si="9">K10*K$15/100</f>
+      <c r="L21">
+        <f t="shared" ref="L21:M21" si="9">L10*L$15/100</f>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="9"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="7"/>
         <v>0.95687499999999992</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -864,20 +876,20 @@
         <f t="shared" ref="I22" si="10">I11*I$15/100</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22:L22" si="11">K11*K$15/100</f>
+      <c r="L22">
+        <f t="shared" ref="L22:M22" si="11">L11*L$15/100</f>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="11"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="Q22" s="1">
-        <f>SUM(D22:P22)/$Q$18</f>
+      <c r="R22" s="1">
+        <f>SUM(D22:Q22)/$R$18</f>
         <v>0.89687499999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -893,15 +905,15 @@
         <f t="shared" ref="I23" si="12">I12*I$15/100</f>
         <v>19</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23:L23" si="13">K12*K$15/100</f>
+      <c r="L23">
+        <f t="shared" ref="L23:M23" si="13">L12*L$15/100</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="7"/>
         <v>0.94687500000000002</v>
       </c>

--- a/Advanced Reactor Materials/Fall2023/grading.xlsx
+++ b/Advanced Reactor Materials/Fall2023/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7F797-81C4-2D41-B48F-17AFBE857DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9042B-7C68-FA41-B4CB-65BE1DE0D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3820" windowWidth="28040" windowHeight="17440" xr2:uid="{142DFFB4-4F83-5448-8A86-CBCBD31FE822}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="23080" windowHeight="15880" xr2:uid="{142DFFB4-4F83-5448-8A86-CBCBD31FE822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Grading for NE-795-010</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Survey</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -459,35 +468,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97299AD9-D8EA-E746-928C-2071F09E3E0E}">
-  <dimension ref="B2:R23"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R3" s="2" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R4" s="2" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -519,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -544,11 +553,21 @@
         <f>H8+5</f>
         <v>102</v>
       </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f>J8+K8</f>
+        <v>105</v>
+      </c>
       <c r="M8">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -573,15 +592,22 @@
         <f t="shared" ref="I9:I11" si="2">H9+5</f>
         <v>78</v>
       </c>
+      <c r="J9">
+        <v>86</v>
+      </c>
       <c r="K9">
         <v>5</v>
       </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L12" si="3">J9+K9</f>
+        <v>91</v>
+      </c>
       <c r="M9">
         <v>90</v>
       </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -606,14 +632,21 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
+      <c r="J10">
+        <v>93</v>
+      </c>
       <c r="K10">
         <v>5</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
       <c r="M10">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -638,14 +671,21 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
+      <c r="J11">
+        <v>99</v>
+      </c>
       <c r="K11">
         <v>5</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
       <c r="M11">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -670,14 +710,21 @@
         <f>H12+5</f>
         <v>95</v>
       </c>
+      <c r="J12">
+        <v>85</v>
+      </c>
       <c r="K12">
         <v>5</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
       <c r="M12">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>10</v>
       </c>
@@ -686,39 +733,39 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:M14" si="3">AVERAGE(E8:E12)</f>
+        <f t="shared" ref="E14:M14" si="4">AVERAGE(E8:E12)</f>
         <v>94.75</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81.400000000000006</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.4</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.8</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.8</v>
       </c>
-      <c r="J14" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>92.6</v>
+      </c>
+      <c r="L14">
         <f>AVERAGE(L8:L12)</f>
-        <v>#DIV/0!</v>
+        <v>97.6</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.6</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -750,12 +797,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R17" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>20</v>
       </c>
@@ -765,15 +812,18 @@
       <c r="I18">
         <v>20</v>
       </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="R18">
-        <f>SUM(D18:Q18)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f>SUM(D18:N18)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -791,56 +841,62 @@
       </c>
       <c r="L19">
         <f>L8*L$15/100</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M19">
         <f>M8*M$15/100</f>
         <v>18.8</v>
       </c>
-      <c r="R19" s="1">
-        <f>SUM(D19:Q19)/$R$18</f>
-        <v>0.98937500000000012</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <f>SUM(D19:N19)/$O$18</f>
+        <v>1.0014999999999998</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G23" si="4">E9*E$15/100</f>
+        <f t="shared" ref="E20:G23" si="5">E9*E$15/100</f>
         <v>18.149999999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="5">I9*I$15/100</f>
+        <f t="shared" ref="I20" si="6">I9*I$15/100</f>
         <v>15.6</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:M20" si="6">L9*L$15/100</f>
-        <v>0</v>
+        <f t="shared" ref="L20:M20" si="7">L9*L$15/100</f>
+        <v>18.2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="R20" s="1">
-        <f t="shared" ref="R20:R23" si="7">SUM(D20:Q20)/$R$18</f>
-        <v>0.84187499999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O20" s="1">
+        <f>SUM(D20:N20)/$O$18</f>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.350000000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.399999999999999</v>
       </c>
       <c r="I21">
@@ -849,27 +905,30 @@
       </c>
       <c r="L21">
         <f t="shared" ref="L21:M21" si="9">L10*L$15/100</f>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="M21">
         <f t="shared" si="9"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.95687499999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O21" s="1">
+        <f>SUM(D21:N21)/$O$18</f>
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.55</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.399999999999999</v>
       </c>
       <c r="I22">
@@ -878,27 +937,30 @@
       </c>
       <c r="L22">
         <f t="shared" ref="L22:M22" si="11">L11*L$15/100</f>
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M22">
         <f t="shared" si="11"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="R22" s="1">
-        <f>SUM(D22:Q22)/$R$18</f>
-        <v>0.89687499999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O22" s="1">
+        <f>SUM(D22:N22)/$O$18</f>
+        <v>0.9255000000000001</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.75</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I23">
@@ -906,16 +968,19 @@
         <v>19</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:M23" si="13">L12*L$15/100</f>
-        <v>0</v>
+        <f t="shared" ref="L23" si="13">L12*L$15/100</f>
+        <v>18</v>
       </c>
       <c r="M23">
-        <f t="shared" si="13"/>
+        <f>M12*M$15/100</f>
         <v>19</v>
       </c>
-      <c r="R23" s="1">
-        <f t="shared" si="7"/>
-        <v>0.94687500000000002</v>
+      <c r="O23" s="1">
+        <f>SUM(D23:N23)/$O$18</f>
+        <v>0.9375</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
